--- a/data/zTable.xlsx
+++ b/data/zTable.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="233">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -69,31 +69,28 @@
     <t xml:space="preserve">FLEX/D</t>
   </si>
   <si>
-    <t xml:space="preserve">DYN MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYN MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYN SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG MAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG MIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG MEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGG MAX-MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BODYBOOST</t>
+    <t xml:space="preserve">Egg-beater max force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater mean force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater sd force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater max height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater min height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater sd height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg-beater max-min height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body-boost</t>
   </si>
   <si>
     <t xml:space="preserve">'aissatou_sougou'</t>
@@ -904,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P52" activeCellId="0" sqref="P52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,27 +973,27 @@
         <v>19</v>
       </c>
       <c r="U1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>287.05</v>
@@ -1064,13 +1061,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>292.75</v>
@@ -1138,13 +1135,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>252.4</v>
@@ -1212,13 +1209,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>213.45</v>
@@ -1286,13 +1283,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>281.75</v>
@@ -1360,19 +1357,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>323.25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>331</v>
@@ -1434,13 +1431,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>180.2</v>
@@ -1508,13 +1505,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>265.35</v>
@@ -1582,13 +1579,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>267.85</v>
@@ -1656,13 +1653,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>324.15</v>
@@ -1730,13 +1727,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>205.75</v>
@@ -1804,13 +1801,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>226</v>
@@ -1878,13 +1875,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>193.2</v>
@@ -1952,13 +1949,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>176.85</v>
@@ -2026,13 +2023,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>287.3</v>
@@ -2100,13 +2097,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>225.65</v>
@@ -2174,13 +2171,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>269.65</v>
@@ -2248,13 +2245,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>259.8</v>
@@ -2322,13 +2319,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>240.2</v>
@@ -2396,13 +2393,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>260.25</v>
@@ -2470,13 +2467,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>225.85</v>
@@ -2544,13 +2541,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>300.65</v>
@@ -2618,13 +2615,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>211.75</v>
@@ -2692,13 +2689,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>151.15</v>
@@ -2766,13 +2763,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>205.85</v>
@@ -2840,13 +2837,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>257.1</v>
@@ -2914,13 +2911,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>241.9</v>
@@ -2988,13 +2985,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="C29" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>205.45</v>
@@ -3062,13 +3059,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>162.45</v>
@@ -3136,13 +3133,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>225.85</v>
@@ -3210,13 +3207,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>259.3</v>
@@ -3284,13 +3281,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>360</v>
@@ -3358,13 +3355,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>314</v>
@@ -3432,13 +3429,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>408</v>
@@ -3506,13 +3503,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>246</v>
@@ -3580,13 +3577,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>281</v>
@@ -3654,13 +3651,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>287</v>
@@ -3728,13 +3725,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>258</v>
@@ -3802,13 +3799,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>238</v>
@@ -3876,13 +3873,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>255</v>
@@ -3950,13 +3947,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>211.25</v>
@@ -4024,13 +4021,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>134</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>301.25</v>
@@ -4051,7 +4048,7 @@
         <v>100.4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>118.95</v>
@@ -4098,13 +4095,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>202.05</v>
@@ -4172,13 +4169,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>139</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>265.8</v>
@@ -4246,13 +4243,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>193.2</v>
@@ -4320,13 +4317,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>300.95</v>
@@ -4394,13 +4391,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>261.55</v>
@@ -4468,13 +4465,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>262.6</v>
@@ -4542,13 +4539,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>230.25</v>
@@ -4616,13 +4613,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>117.75</v>
@@ -4690,13 +4687,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>319.65</v>
@@ -4764,13 +4761,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>202.45</v>
@@ -4838,13 +4835,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>301.6</v>
@@ -4912,13 +4909,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>296.2</v>
@@ -4986,13 +4983,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>301.65</v>
@@ -5060,13 +5057,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>257.2</v>
@@ -5134,13 +5131,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>259.15</v>
@@ -5208,13 +5205,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>241.5</v>
@@ -5282,13 +5279,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>211</v>
@@ -5356,13 +5353,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>334.4</v>
@@ -5430,13 +5427,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>286.85</v>
@@ -5504,13 +5501,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>199.85</v>
@@ -5578,13 +5575,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>331.55</v>
@@ -5652,13 +5649,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>227.85</v>
@@ -5726,13 +5723,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>271.1</v>
@@ -5800,13 +5797,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>284.4</v>
@@ -5874,13 +5871,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>283.4</v>
@@ -5948,13 +5945,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>189</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>231.25</v>
@@ -6022,13 +6019,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>302.45</v>
@@ -6096,13 +6093,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>272.4</v>
@@ -6170,13 +6167,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>195</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>243.25</v>
@@ -6244,13 +6241,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>220.95</v>
@@ -6318,13 +6315,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>262.4</v>
@@ -6392,13 +6389,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>256.15</v>
@@ -6466,13 +6463,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>280.55</v>
@@ -6540,13 +6537,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>235.8</v>
@@ -6614,13 +6611,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>236.05</v>
@@ -6688,13 +6685,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>298</v>
@@ -6762,13 +6759,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>232.85</v>
@@ -6836,13 +6833,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>199.6</v>
@@ -6910,13 +6907,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>227.1</v>
@@ -6984,13 +6981,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>214.7</v>
@@ -7058,13 +7055,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>270.05</v>
@@ -7132,13 +7129,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>219</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>316.4</v>
@@ -7206,13 +7203,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>181.75</v>
@@ -7280,13 +7277,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>262.05</v>
@@ -7354,13 +7351,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>196.2</v>
@@ -7428,13 +7425,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>282.05</v>
@@ -7502,13 +7499,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>239.4</v>
@@ -7576,13 +7573,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>189.25</v>
@@ -7650,13 +7647,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>308.35</v>
@@ -7677,7 +7674,7 @@
         <v>84.6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>92.25</v>
@@ -7724,13 +7721,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>263.4</v>

--- a/data/zTable.xlsx
+++ b/data/zTable.xlsx
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="233">
-  <si>
-    <t xml:space="preserve">name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="234">
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Height</t>
@@ -69,28 +69,31 @@
     <t xml:space="preserve">FLEX/D</t>
   </si>
   <si>
-    <t xml:space="preserve">Egg-beater max force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater mean force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater sd force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater max height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater min height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater sd height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg-beater max-min height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body-boost</t>
+    <t xml:space="preserve">EB max force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB mean force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB sd force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB max height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB min height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB mean height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB sd height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB max-min height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
   </si>
   <si>
     <t xml:space="preserve">'aissatou_sougou'</t>
@@ -901,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,27 +976,27 @@
         <v>19</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>287.05</v>
@@ -1061,13 +1064,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>292.75</v>
@@ -1135,13 +1138,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>252.4</v>
@@ -1209,13 +1212,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>213.45</v>
@@ -1283,13 +1286,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>281.75</v>
@@ -1357,19 +1360,19 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>323.25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>331</v>
@@ -1431,13 +1434,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>180.2</v>
@@ -1505,13 +1508,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>265.35</v>
@@ -1579,13 +1582,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>267.85</v>
@@ -1653,13 +1656,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>324.15</v>
@@ -1727,13 +1730,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>205.75</v>
@@ -1801,13 +1804,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>226</v>
@@ -1875,13 +1878,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>193.2</v>
@@ -1949,13 +1952,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>176.85</v>
@@ -2023,13 +2026,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>287.3</v>
@@ -2097,13 +2100,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>225.65</v>
@@ -2171,13 +2174,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>269.65</v>
@@ -2245,13 +2248,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>259.8</v>
@@ -2319,13 +2322,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>240.2</v>
@@ -2393,13 +2396,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>260.25</v>
@@ -2467,13 +2470,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>225.85</v>
@@ -2541,13 +2544,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>300.65</v>
@@ -2615,13 +2618,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>211.75</v>
@@ -2689,13 +2692,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>151.15</v>
@@ -2763,13 +2766,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>205.85</v>
@@ -2837,13 +2840,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>257.1</v>
@@ -2911,13 +2914,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>241.9</v>
@@ -2985,13 +2988,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>205.45</v>
@@ -3059,13 +3062,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>162.45</v>
@@ -3133,13 +3136,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>225.85</v>
@@ -3207,13 +3210,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>259.3</v>
@@ -3281,13 +3284,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>360</v>
@@ -3355,13 +3358,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>314</v>
@@ -3429,13 +3432,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>408</v>
@@ -3503,13 +3506,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>246</v>
@@ -3577,13 +3580,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>281</v>
@@ -3651,13 +3654,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>287</v>
@@ -3725,13 +3728,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>258</v>
@@ -3799,13 +3802,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>238</v>
@@ -3873,13 +3876,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>255</v>
@@ -3947,13 +3950,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>211.25</v>
@@ -4021,13 +4024,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>301.25</v>
@@ -4048,7 +4051,7 @@
         <v>100.4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>118.95</v>
@@ -4095,13 +4098,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>202.05</v>
@@ -4169,13 +4172,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>265.8</v>
@@ -4243,13 +4246,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>193.2</v>
@@ -4317,13 +4320,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>300.95</v>
@@ -4391,13 +4394,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>261.55</v>
@@ -4465,13 +4468,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>262.6</v>
@@ -4539,13 +4542,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>230.25</v>
@@ -4613,13 +4616,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>117.75</v>
@@ -4687,13 +4690,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>319.65</v>
@@ -4761,13 +4764,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>202.45</v>
@@ -4835,13 +4838,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>301.6</v>
@@ -4909,13 +4912,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>296.2</v>
@@ -4983,13 +4986,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>301.65</v>
@@ -5057,13 +5060,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>257.2</v>
@@ -5131,13 +5134,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>259.15</v>
@@ -5205,13 +5208,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>241.5</v>
@@ -5279,13 +5282,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>211</v>
@@ -5353,13 +5356,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>334.4</v>
@@ -5427,13 +5430,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>286.85</v>
@@ -5501,13 +5504,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>199.85</v>
@@ -5575,13 +5578,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>331.55</v>
@@ -5649,13 +5652,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>227.85</v>
@@ -5723,13 +5726,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>271.1</v>
@@ -5797,13 +5800,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>284.4</v>
@@ -5871,13 +5874,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>283.4</v>
@@ -5945,13 +5948,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>231.25</v>
@@ -6019,13 +6022,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>302.45</v>
@@ -6093,13 +6096,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>272.4</v>
@@ -6167,13 +6170,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>243.25</v>
@@ -6241,13 +6244,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>220.95</v>
@@ -6315,13 +6318,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>262.4</v>
@@ -6389,13 +6392,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>256.15</v>
@@ -6463,13 +6466,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>280.55</v>
@@ -6537,13 +6540,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>235.8</v>
@@ -6611,13 +6614,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>236.05</v>
@@ -6685,13 +6688,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>298</v>
@@ -6759,13 +6762,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>232.85</v>
@@ -6833,13 +6836,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>199.6</v>
@@ -6907,13 +6910,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>227.1</v>
@@ -6981,13 +6984,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>214.7</v>
@@ -7055,13 +7058,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>270.05</v>
@@ -7129,13 +7132,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>316.4</v>
@@ -7203,13 +7206,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>181.75</v>
@@ -7277,13 +7280,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>262.05</v>
@@ -7351,13 +7354,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>196.2</v>
@@ -7425,13 +7428,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>282.05</v>
@@ -7499,13 +7502,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>239.4</v>
@@ -7573,13 +7576,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>189.25</v>
@@ -7647,13 +7650,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>308.35</v>
@@ -7674,7 +7677,7 @@
         <v>84.6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92" s="1" t="n">
         <v>92.25</v>
@@ -7721,13 +7724,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>263.4</v>
